--- a/AAII_Financials/Yearly/LLAP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LLAP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>LLAP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,26 +711,26 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>40900</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>24900</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,11 +738,11 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>16900</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -765,11 +765,11 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8000</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -860,25 +860,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>96000</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4400</v>
+        <v>173600</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>34300</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -950,11 +950,11 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-132700</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-9400</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -990,11 +990,11 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-6200</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1018,25 +1018,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-135900</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
+        <v>-7700</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2500</v>
+        <v>-138900</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-10600</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2500</v>
+        <v>-139000</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-10500</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2500</v>
+        <v>-139000</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-10500</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1314,11 +1314,11 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>6200</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2500</v>
+        <v>-139000</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-10500</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2500</v>
+        <v>-139000</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-10500</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+        <v>27300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12300</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1535,25 +1535,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>4400</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1562,25 +1562,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>57600</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>5200</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2000</v>
+        <v>99200</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>24800</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1643,25 +1643,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>345100</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1670,25 +1670,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>35500</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>19500</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1778,25 +1778,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>347100</v>
+        <v>135400</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>44300</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,25 +1885,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>2900</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2200</v>
+        <v>94600</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>22900</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2200</v>
+        <v>104000</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>27200</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>115100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>35600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28500</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>7700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>500</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30600</v>
+        <v>226800</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>87100</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2222,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-28500</v>
+        <v>-197100</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>-58100</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>316500</v>
+        <v>-99400</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-50800</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2500</v>
+        <v>-139000</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-10500</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,25 +2510,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>2900</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2700</v>
+        <v>-34900</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-11500</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,25 +2712,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-16400</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-7300</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-345000</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+        <v>-16400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-7300</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>349300</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+        <v>66400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>15100</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2968,25 +2968,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1600</v>
+        <v>15000</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-3600</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LLAP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LLAP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
   <si>
     <t>LLAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,34 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,21 +705,24 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E8" s="3">
         <v>40900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24900</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -732,21 +735,24 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E9" s="3">
         <v>33900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16900</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,21 +765,24 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E10" s="3">
         <v>7000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8000</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,20 +869,23 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E14" s="3">
         <v>96000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -880,9 +899,12 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,20 +943,21 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>270200</v>
+      </c>
+      <c r="E17" s="3">
         <v>173600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34300</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -944,21 +970,24 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-176000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-132700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9400</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,20 +1017,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,21 +1044,24 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-159800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-135900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7700</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1038,48 +1074,54 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-163800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-138900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10600</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,21 +1134,24 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,21 +1194,24 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-139000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10500</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,21 +1224,24 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-139000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10500</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,21 +1374,24 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E32" s="3">
         <v>6200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1335,21 +1404,24 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-139000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10500</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,21 +1464,24 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-139000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10500</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1416,26 +1494,29 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,20 +1560,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>93600</v>
+      </c>
+      <c r="E41" s="3">
         <v>27300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12300</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1501,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,21 +1617,24 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E43" s="3">
         <v>6500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1555,21 +1647,24 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E44" s="3">
         <v>7800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2800</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1582,21 +1677,24 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E45" s="3">
         <v>57600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1609,21 +1707,24 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>138900</v>
+      </c>
+      <c r="E46" s="3">
         <v>99200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24800</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1636,9 +1737,12 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1663,21 +1767,24 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E48" s="3">
         <v>35500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19500</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1690,9 +1797,12 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,20 +1887,23 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,21 +1947,24 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>182700</v>
+      </c>
+      <c r="E54" s="3">
         <v>135400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44300</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,20 +2008,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E57" s="3">
         <v>9400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,21 +2035,24 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>7700</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,21 +2065,24 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E59" s="3">
         <v>94600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22900</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -1959,21 +2095,24 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E60" s="3">
         <v>104000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27200</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,21 +2125,24 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>142600</v>
+      </c>
+      <c r="E61" s="3">
         <v>115100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>35600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2013,21 +2155,24 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E62" s="3">
         <v>7700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,21 +2275,24 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>274100</v>
+      </c>
+      <c r="E66" s="3">
         <v>226800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>87100</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,20 +2379,23 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>8000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,21 +2439,24 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-361200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-197100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-58100</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,21 +2559,24 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-91400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-99400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-50800</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,26 +2619,29 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,21 +2654,24 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-139000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10500</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,20 +2701,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2900</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,21 +2878,24 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-81800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-34900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11500</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,20 +2925,21 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7300</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,21 +3012,24 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7300</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,21 +3176,24 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>170500</v>
+      </c>
+      <c r="E100" s="3">
         <v>66400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>15100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,21 +3206,24 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2988,21 +3236,24 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E102" s="3">
         <v>15000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3600</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
